--- a/SuppXLS/Scen_B_SUP_DomBioPot_Baseline.xlsx
+++ b/SuppXLS/Scen_B_SUP_DomBioPot_Baseline.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B42688-26AF-48A6-8F18-0A245020E29F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40BE0369-DBF1-4BD4-A8A4-9E3E6F0A0837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31140" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="20" r:id="rId1"/>
@@ -519,9 +519,6 @@
     <t>Curr</t>
   </si>
   <si>
-    <t>EUR14</t>
-  </si>
-  <si>
     <t>ACTCOST</t>
   </si>
   <si>
@@ -589,6 +586,9 @@
   </si>
   <si>
     <t>Alessandro Chiodi (UCC, a.chiodi@ucc.ie)</t>
+  </si>
+  <si>
+    <t>MEUR2014</t>
   </si>
 </sst>
 </file>
@@ -2153,21 +2153,21 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="4" width="21.7109375" style="15" customWidth="1"/>
-    <col min="5" max="6" width="14.140625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="15" customWidth="1"/>
-    <col min="8" max="10" width="8.140625" style="15" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="15" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" style="15" customWidth="1"/>
+    <col min="1" max="4" width="21.73046875" style="15" customWidth="1"/>
+    <col min="5" max="6" width="14.1328125" style="15" customWidth="1"/>
+    <col min="7" max="7" width="12.1328125" style="15" customWidth="1"/>
+    <col min="8" max="10" width="8.1328125" style="15" customWidth="1"/>
+    <col min="11" max="11" width="9.73046875" style="15" customWidth="1"/>
+    <col min="12" max="12" width="8.1328125" style="15" customWidth="1"/>
     <col min="13" max="13" width="10" style="15" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="15" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="15" customWidth="1"/>
-    <col min="16" max="16384" width="8.85546875" style="15"/>
+    <col min="14" max="14" width="11.3984375" style="15" customWidth="1"/>
+    <col min="15" max="15" width="13.3984375" style="15" customWidth="1"/>
+    <col min="16" max="16384" width="8.86328125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A1" s="74"/>
       <c r="B1" s="74"/>
       <c r="C1" s="74"/>
@@ -2195,7 +2195,7 @@
       <c r="Y1" s="75"/>
       <c r="Z1" s="75"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A2" s="74"/>
       <c r="B2" s="74"/>
       <c r="C2" s="74"/>
@@ -2223,7 +2223,7 @@
       <c r="Y2" s="75"/>
       <c r="Z2" s="75"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A3" s="74"/>
       <c r="B3" s="74"/>
       <c r="C3" s="74"/>
@@ -2251,7 +2251,7 @@
       <c r="Y3" s="75"/>
       <c r="Z3" s="75"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A4" s="74"/>
       <c r="B4" s="74"/>
       <c r="C4" s="74"/>
@@ -2279,7 +2279,7 @@
       <c r="Y4" s="75"/>
       <c r="Z4" s="75"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A5" s="74"/>
       <c r="B5" s="74"/>
       <c r="C5" s="74"/>
@@ -2307,7 +2307,7 @@
       <c r="Y5" s="75"/>
       <c r="Z5" s="75"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A6" s="74"/>
       <c r="B6" s="74"/>
       <c r="C6" s="74"/>
@@ -2335,7 +2335,7 @@
       <c r="Y6" s="75"/>
       <c r="Z6" s="75"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A7" s="74"/>
       <c r="B7" s="74"/>
       <c r="C7" s="74"/>
@@ -2363,7 +2363,7 @@
       <c r="Y7" s="75"/>
       <c r="Z7" s="75"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A8" s="74"/>
       <c r="B8" s="74"/>
       <c r="C8" s="74"/>
@@ -2391,7 +2391,7 @@
       <c r="Y8" s="75"/>
       <c r="Z8" s="75"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A9" s="74"/>
       <c r="B9" s="74"/>
       <c r="C9" s="74"/>
@@ -2419,7 +2419,7 @@
       <c r="Y9" s="75"/>
       <c r="Z9" s="75"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A10" s="74"/>
       <c r="B10" s="74"/>
       <c r="C10" s="74"/>
@@ -2447,7 +2447,7 @@
       <c r="Y10" s="75"/>
       <c r="Z10" s="75"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A11" s="74"/>
       <c r="B11" s="74"/>
       <c r="C11" s="74"/>
@@ -2475,7 +2475,7 @@
       <c r="Y11" s="75"/>
       <c r="Z11" s="75"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A12" s="74"/>
       <c r="B12" s="74"/>
       <c r="C12" s="74"/>
@@ -2503,7 +2503,7 @@
       <c r="Y12" s="75"/>
       <c r="Z12" s="75"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A13" s="74"/>
       <c r="B13" s="74"/>
       <c r="C13" s="74"/>
@@ -2531,7 +2531,7 @@
       <c r="Y13" s="75"/>
       <c r="Z13" s="75"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A14" s="74"/>
       <c r="B14" s="74"/>
       <c r="C14" s="74"/>
@@ -2559,7 +2559,7 @@
       <c r="Y14" s="75"/>
       <c r="Z14" s="75"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A15" s="74"/>
       <c r="B15" s="74"/>
       <c r="C15" s="74"/>
@@ -2587,9 +2587,9 @@
       <c r="Y15" s="75"/>
       <c r="Z15" s="75"/>
     </row>
-    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="90" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B16" s="90"/>
       <c r="C16" s="90"/>
@@ -2617,7 +2617,7 @@
       <c r="Y16" s="75"/>
       <c r="Z16" s="75"/>
     </row>
-    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="78"/>
       <c r="B17" s="78"/>
       <c r="C17" s="78"/>
@@ -2645,7 +2645,7 @@
       <c r="Y17" s="75"/>
       <c r="Z17" s="75"/>
     </row>
-    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="78"/>
       <c r="B18" s="78"/>
       <c r="C18" s="78"/>
@@ -2673,12 +2673,12 @@
       <c r="Y18" s="75"/>
       <c r="Z18" s="75"/>
     </row>
-    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="81" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B19" s="89" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C19" s="89"/>
       <c r="D19" s="89"/>
@@ -2705,12 +2705,12 @@
       <c r="Y19" s="75"/>
       <c r="Z19" s="75"/>
     </row>
-    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="81" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B20" s="89" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C20" s="89"/>
       <c r="D20" s="89"/>
@@ -2737,12 +2737,12 @@
       <c r="Y20" s="75"/>
       <c r="Z20" s="75"/>
     </row>
-    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="81" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B21" s="84" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C21" s="84"/>
       <c r="D21" s="84"/>
@@ -2769,7 +2769,7 @@
       <c r="Y21" s="75"/>
       <c r="Z21" s="75"/>
     </row>
-    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="81"/>
       <c r="B22" s="84"/>
       <c r="C22" s="84"/>
@@ -2797,12 +2797,12 @@
       <c r="Y22" s="75"/>
       <c r="Z22" s="75"/>
     </row>
-    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="81" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B23" s="89" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C23" s="89"/>
       <c r="D23" s="89"/>
@@ -2829,10 +2829,10 @@
       <c r="Y23" s="75"/>
       <c r="Z23" s="75"/>
     </row>
-    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="81"/>
       <c r="B24" s="84" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C24" s="84"/>
       <c r="D24" s="84"/>
@@ -2859,7 +2859,7 @@
       <c r="Y24" s="75"/>
       <c r="Z24" s="75"/>
     </row>
-    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="81"/>
       <c r="B25" s="84"/>
       <c r="C25" s="84"/>
@@ -2887,12 +2887,12 @@
       <c r="Y25" s="75"/>
       <c r="Z25" s="75"/>
     </row>
-    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="81" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B26" s="89" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C26" s="89"/>
       <c r="D26" s="89"/>
@@ -2919,7 +2919,7 @@
       <c r="Y26" s="75"/>
       <c r="Z26" s="75"/>
     </row>
-    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="81"/>
       <c r="B27" s="84"/>
       <c r="C27" s="84"/>
@@ -2947,7 +2947,7 @@
       <c r="Y27" s="75"/>
       <c r="Z27" s="75"/>
     </row>
-    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="81"/>
       <c r="B28" s="84"/>
       <c r="C28" s="84"/>
@@ -2975,9 +2975,9 @@
       <c r="Y28" s="75"/>
       <c r="Z28" s="75"/>
     </row>
-    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="81" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B29" s="85">
         <v>1</v>
@@ -3007,12 +3007,12 @@
       <c r="Y29" s="75"/>
       <c r="Z29" s="75"/>
     </row>
-    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="81" t="s">
+        <v>117</v>
+      </c>
+      <c r="B30" s="91" t="s">
         <v>118</v>
-      </c>
-      <c r="B30" s="91" t="s">
-        <v>119</v>
       </c>
       <c r="C30" s="89"/>
       <c r="D30" s="89"/>
@@ -3039,12 +3039,12 @@
       <c r="Y30" s="75"/>
       <c r="Z30" s="75"/>
     </row>
-    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="81" t="s">
+        <v>119</v>
+      </c>
+      <c r="B31" s="89" t="s">
         <v>120</v>
-      </c>
-      <c r="B31" s="89" t="s">
-        <v>121</v>
       </c>
       <c r="C31" s="89"/>
       <c r="D31" s="89"/>
@@ -3071,10 +3071,10 @@
       <c r="Y31" s="75"/>
       <c r="Z31" s="75"/>
     </row>
-    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="87"/>
       <c r="B32" s="88" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C32" s="87"/>
       <c r="D32" s="87"/>
@@ -3101,7 +3101,7 @@
       <c r="Y32" s="75"/>
       <c r="Z32" s="75"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A33" s="74"/>
       <c r="B33" s="74"/>
       <c r="C33" s="74"/>
@@ -3129,7 +3129,7 @@
       <c r="Y33" s="75"/>
       <c r="Z33" s="75"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A34" s="74"/>
       <c r="B34" s="74"/>
       <c r="C34" s="74"/>
@@ -3157,7 +3157,7 @@
       <c r="Y34" s="75"/>
       <c r="Z34" s="75"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A35" s="74"/>
       <c r="B35" s="74"/>
       <c r="C35" s="74"/>
@@ -3185,7 +3185,7 @@
       <c r="Y35" s="75"/>
       <c r="Z35" s="75"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A36" s="74"/>
       <c r="B36" s="74"/>
       <c r="C36" s="74"/>
@@ -3213,7 +3213,7 @@
       <c r="Y36" s="75"/>
       <c r="Z36" s="75"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A37" s="74"/>
       <c r="B37" s="74"/>
       <c r="C37" s="74"/>
@@ -3241,7 +3241,7 @@
       <c r="Y37" s="75"/>
       <c r="Z37" s="75"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A38" s="74"/>
       <c r="B38" s="74"/>
       <c r="C38" s="74"/>
@@ -3269,7 +3269,7 @@
       <c r="Y38" s="75"/>
       <c r="Z38" s="75"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A39" s="74"/>
       <c r="B39" s="74"/>
       <c r="C39" s="74"/>
@@ -3297,7 +3297,7 @@
       <c r="Y39" s="75"/>
       <c r="Z39" s="75"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A40" s="74"/>
       <c r="B40" s="74"/>
       <c r="C40" s="74"/>
@@ -3325,7 +3325,7 @@
       <c r="Y40" s="75"/>
       <c r="Z40" s="75"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A41" s="74"/>
       <c r="B41" s="74"/>
       <c r="C41" s="74"/>
@@ -3353,7 +3353,7 @@
       <c r="Y41" s="75"/>
       <c r="Z41" s="75"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A42" s="74"/>
       <c r="B42" s="74"/>
       <c r="C42" s="74"/>
@@ -3381,7 +3381,7 @@
       <c r="Y42" s="75"/>
       <c r="Z42" s="75"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A43" s="75"/>
       <c r="B43" s="75"/>
       <c r="C43" s="75"/>
@@ -3409,7 +3409,7 @@
       <c r="Y43" s="75"/>
       <c r="Z43" s="75"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A44" s="75"/>
       <c r="B44" s="75"/>
       <c r="C44" s="75"/>
@@ -3437,7 +3437,7 @@
       <c r="Y44" s="75"/>
       <c r="Z44" s="75"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A45" s="75"/>
       <c r="B45" s="75"/>
       <c r="C45" s="75"/>
@@ -3465,7 +3465,7 @@
       <c r="Y45" s="75"/>
       <c r="Z45" s="75"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A46" s="75"/>
       <c r="B46" s="75"/>
       <c r="C46" s="75"/>
@@ -3493,7 +3493,7 @@
       <c r="Y46" s="75"/>
       <c r="Z46" s="75"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A47" s="75"/>
       <c r="B47" s="75"/>
       <c r="C47" s="75"/>
@@ -3521,7 +3521,7 @@
       <c r="Y47" s="75"/>
       <c r="Z47" s="75"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A48" s="75"/>
       <c r="B48" s="75"/>
       <c r="C48" s="75"/>
@@ -3549,7 +3549,7 @@
       <c r="Y48" s="75"/>
       <c r="Z48" s="75"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A49" s="75"/>
       <c r="B49" s="75"/>
       <c r="C49" s="75"/>
@@ -3577,7 +3577,7 @@
       <c r="Y49" s="75"/>
       <c r="Z49" s="75"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A50" s="75"/>
       <c r="B50" s="75"/>
       <c r="C50" s="75"/>
@@ -3605,7 +3605,7 @@
       <c r="Y50" s="75"/>
       <c r="Z50" s="75"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A51" s="75"/>
       <c r="B51" s="75"/>
       <c r="C51" s="75"/>
@@ -3633,7 +3633,7 @@
       <c r="Y51" s="75"/>
       <c r="Z51" s="75"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A52" s="75"/>
       <c r="B52" s="75"/>
       <c r="C52" s="75"/>
@@ -3661,7 +3661,7 @@
       <c r="Y52" s="75"/>
       <c r="Z52" s="75"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A53" s="75"/>
       <c r="B53" s="75"/>
       <c r="C53" s="75"/>
@@ -3689,7 +3689,7 @@
       <c r="Y53" s="75"/>
       <c r="Z53" s="75"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A54" s="75"/>
       <c r="B54" s="75"/>
       <c r="C54" s="75"/>
@@ -3717,7 +3717,7 @@
       <c r="Y54" s="75"/>
       <c r="Z54" s="75"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A55" s="75"/>
       <c r="B55" s="75"/>
       <c r="C55" s="75"/>
@@ -3745,7 +3745,7 @@
       <c r="Y55" s="75"/>
       <c r="Z55" s="75"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A56" s="75"/>
       <c r="B56" s="75"/>
       <c r="C56" s="75"/>
@@ -3773,7 +3773,7 @@
       <c r="Y56" s="75"/>
       <c r="Z56" s="75"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A57" s="75"/>
       <c r="B57" s="75"/>
       <c r="C57" s="75"/>
@@ -3801,7 +3801,7 @@
       <c r="Y57" s="75"/>
       <c r="Z57" s="75"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A58" s="75"/>
       <c r="B58" s="75"/>
       <c r="C58" s="75"/>
@@ -3829,7 +3829,7 @@
       <c r="Y58" s="75"/>
       <c r="Z58" s="75"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A59" s="75"/>
       <c r="B59" s="75"/>
       <c r="C59" s="75"/>
@@ -3857,7 +3857,7 @@
       <c r="Y59" s="75"/>
       <c r="Z59" s="75"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A60" s="75"/>
       <c r="B60" s="75"/>
       <c r="C60" s="75"/>
@@ -3885,7 +3885,7 @@
       <c r="Y60" s="75"/>
       <c r="Z60" s="75"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A61" s="75"/>
       <c r="B61" s="75"/>
       <c r="C61" s="75"/>
@@ -3913,7 +3913,7 @@
       <c r="Y61" s="75"/>
       <c r="Z61" s="75"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A62" s="75"/>
       <c r="B62" s="75"/>
       <c r="C62" s="75"/>
@@ -3941,7 +3941,7 @@
       <c r="Y62" s="75"/>
       <c r="Z62" s="75"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A63" s="75"/>
       <c r="B63" s="75"/>
       <c r="C63" s="75"/>
@@ -3969,7 +3969,7 @@
       <c r="Y63" s="75"/>
       <c r="Z63" s="75"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A64" s="75"/>
       <c r="B64" s="75"/>
       <c r="C64" s="75"/>
@@ -3997,7 +3997,7 @@
       <c r="Y64" s="75"/>
       <c r="Z64" s="75"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A65" s="75"/>
       <c r="B65" s="75"/>
       <c r="C65" s="75"/>
@@ -4025,7 +4025,7 @@
       <c r="Y65" s="75"/>
       <c r="Z65" s="75"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A66" s="75"/>
       <c r="B66" s="75"/>
       <c r="C66" s="75"/>
@@ -4053,7 +4053,7 @@
       <c r="Y66" s="75"/>
       <c r="Z66" s="75"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A67" s="75"/>
       <c r="B67" s="75"/>
       <c r="C67" s="75"/>
@@ -4081,7 +4081,7 @@
       <c r="Y67" s="75"/>
       <c r="Z67" s="75"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A68" s="75"/>
       <c r="B68" s="75"/>
       <c r="C68" s="75"/>
@@ -4109,7 +4109,7 @@
       <c r="Y68" s="75"/>
       <c r="Z68" s="75"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A69" s="75"/>
       <c r="B69" s="75"/>
       <c r="C69" s="75"/>
@@ -4137,7 +4137,7 @@
       <c r="Y69" s="75"/>
       <c r="Z69" s="75"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A70" s="75"/>
       <c r="B70" s="75"/>
       <c r="C70" s="75"/>
@@ -4165,7 +4165,7 @@
       <c r="Y70" s="75"/>
       <c r="Z70" s="75"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A71" s="75"/>
       <c r="B71" s="75"/>
       <c r="C71" s="75"/>
@@ -4193,7 +4193,7 @@
       <c r="Y71" s="75"/>
       <c r="Z71" s="75"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A72" s="75"/>
       <c r="B72" s="75"/>
       <c r="C72" s="75"/>
@@ -4221,7 +4221,7 @@
       <c r="Y72" s="75"/>
       <c r="Z72" s="75"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A73" s="75"/>
       <c r="B73" s="75"/>
       <c r="C73" s="75"/>
@@ -4249,7 +4249,7 @@
       <c r="Y73" s="75"/>
       <c r="Z73" s="75"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A74" s="75"/>
       <c r="B74" s="75"/>
       <c r="C74" s="75"/>
@@ -4277,7 +4277,7 @@
       <c r="Y74" s="75"/>
       <c r="Z74" s="75"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A75" s="75"/>
       <c r="B75" s="75"/>
       <c r="C75" s="75"/>
@@ -4305,7 +4305,7 @@
       <c r="Y75" s="75"/>
       <c r="Z75" s="75"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A76" s="75"/>
       <c r="B76" s="75"/>
       <c r="C76" s="75"/>
@@ -4333,7 +4333,7 @@
       <c r="Y76" s="75"/>
       <c r="Z76" s="75"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A77" s="75"/>
       <c r="B77" s="75"/>
       <c r="C77" s="75"/>
@@ -4361,7 +4361,7 @@
       <c r="Y77" s="75"/>
       <c r="Z77" s="75"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A78" s="75"/>
       <c r="B78" s="75"/>
       <c r="C78" s="75"/>
@@ -4389,7 +4389,7 @@
       <c r="Y78" s="75"/>
       <c r="Z78" s="75"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A79" s="75"/>
       <c r="B79" s="75"/>
       <c r="C79" s="75"/>
@@ -4417,7 +4417,7 @@
       <c r="Y79" s="75"/>
       <c r="Z79" s="75"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A80" s="75"/>
       <c r="B80" s="75"/>
       <c r="C80" s="75"/>
@@ -4445,7 +4445,7 @@
       <c r="Y80" s="75"/>
       <c r="Z80" s="75"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A81" s="75"/>
       <c r="B81" s="75"/>
       <c r="C81" s="75"/>
@@ -4473,7 +4473,7 @@
       <c r="Y81" s="75"/>
       <c r="Z81" s="75"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A82" s="75"/>
       <c r="B82" s="75"/>
       <c r="C82" s="75"/>
@@ -4501,7 +4501,7 @@
       <c r="Y82" s="75"/>
       <c r="Z82" s="75"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A83" s="75"/>
       <c r="B83" s="75"/>
       <c r="C83" s="75"/>
@@ -4529,7 +4529,7 @@
       <c r="Y83" s="75"/>
       <c r="Z83" s="75"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A84" s="75"/>
       <c r="B84" s="75"/>
       <c r="C84" s="75"/>
@@ -4557,7 +4557,7 @@
       <c r="Y84" s="75"/>
       <c r="Z84" s="75"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A85" s="75"/>
       <c r="B85" s="75"/>
       <c r="C85" s="75"/>
@@ -4585,7 +4585,7 @@
       <c r="Y85" s="75"/>
       <c r="Z85" s="75"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A86" s="75"/>
       <c r="B86" s="75"/>
       <c r="C86" s="75"/>
@@ -4613,7 +4613,7 @@
       <c r="Y86" s="75"/>
       <c r="Z86" s="75"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A87" s="75"/>
       <c r="B87" s="75"/>
       <c r="C87" s="75"/>
@@ -4641,7 +4641,7 @@
       <c r="Y87" s="75"/>
       <c r="Z87" s="75"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A88" s="75"/>
       <c r="B88" s="75"/>
       <c r="C88" s="75"/>
@@ -4669,7 +4669,7 @@
       <c r="Y88" s="75"/>
       <c r="Z88" s="75"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A89" s="75"/>
       <c r="B89" s="75"/>
       <c r="C89" s="75"/>
@@ -4697,7 +4697,7 @@
       <c r="Y89" s="75"/>
       <c r="Z89" s="75"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A90" s="75"/>
       <c r="B90" s="75"/>
       <c r="C90" s="75"/>
@@ -4725,7 +4725,7 @@
       <c r="Y90" s="75"/>
       <c r="Z90" s="75"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A91" s="75"/>
       <c r="B91" s="75"/>
       <c r="C91" s="75"/>
@@ -4753,7 +4753,7 @@
       <c r="Y91" s="75"/>
       <c r="Z91" s="75"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A92" s="75"/>
       <c r="B92" s="75"/>
       <c r="C92" s="75"/>
@@ -4781,7 +4781,7 @@
       <c r="Y92" s="75"/>
       <c r="Z92" s="75"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A93" s="75"/>
       <c r="B93" s="75"/>
       <c r="C93" s="75"/>
@@ -4809,7 +4809,7 @@
       <c r="Y93" s="75"/>
       <c r="Z93" s="75"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A94" s="75"/>
       <c r="B94" s="75"/>
       <c r="C94" s="75"/>
@@ -4837,7 +4837,7 @@
       <c r="Y94" s="75"/>
       <c r="Z94" s="75"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A95" s="75"/>
       <c r="B95" s="75"/>
       <c r="C95" s="75"/>
@@ -4865,7 +4865,7 @@
       <c r="Y95" s="75"/>
       <c r="Z95" s="75"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A96" s="75"/>
       <c r="B96" s="75"/>
       <c r="C96" s="75"/>
@@ -4893,7 +4893,7 @@
       <c r="Y96" s="75"/>
       <c r="Z96" s="75"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A97" s="75"/>
       <c r="B97" s="75"/>
       <c r="C97" s="75"/>
@@ -4921,7 +4921,7 @@
       <c r="Y97" s="75"/>
       <c r="Z97" s="75"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A98" s="75"/>
       <c r="B98" s="75"/>
       <c r="C98" s="75"/>
@@ -4949,7 +4949,7 @@
       <c r="Y98" s="75"/>
       <c r="Z98" s="75"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A99" s="75"/>
       <c r="B99" s="75"/>
       <c r="C99" s="75"/>
@@ -5004,33 +5004,33 @@
   </sheetPr>
   <dimension ref="A1:DQ68"/>
   <sheetViews>
-    <sheetView topLeftCell="C14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView topLeftCell="BZ6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CP6" sqref="CP6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="52" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="52" customWidth="1"/>
-    <col min="3" max="58" width="9.140625" style="52"/>
+    <col min="1" max="1" width="19.265625" style="52" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" style="52" customWidth="1"/>
+    <col min="3" max="58" width="9.1328125" style="52"/>
     <col min="59" max="59" width="28" style="52" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="22.42578125" style="52" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="9.85546875" style="52" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="9.140625" style="52"/>
-    <col min="63" max="63" width="9.85546875" style="52" customWidth="1"/>
+    <col min="60" max="60" width="22.3984375" style="52" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="9.86328125" style="52" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="9.1328125" style="52"/>
+    <col min="63" max="63" width="9.86328125" style="52" customWidth="1"/>
     <col min="64" max="88" width="9" style="2" customWidth="1"/>
-    <col min="89" max="90" width="9.140625" style="52"/>
-    <col min="91" max="91" width="17.28515625" style="52" customWidth="1"/>
-    <col min="92" max="92" width="21.140625" style="52" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="9.28515625" style="52" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="9.28515625" style="52" customWidth="1"/>
-    <col min="95" max="95" width="8.85546875" style="52" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="9.140625" style="52"/>
-    <col min="97" max="120" width="8.85546875" style="2" customWidth="1"/>
-    <col min="121" max="16384" width="9.140625" style="52"/>
+    <col min="89" max="90" width="9.1328125" style="52"/>
+    <col min="91" max="91" width="17.265625" style="52" customWidth="1"/>
+    <col min="92" max="92" width="21.1328125" style="52" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="9.265625" style="52" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="9.265625" style="52" customWidth="1"/>
+    <col min="95" max="95" width="8.86328125" style="52" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="9.1328125" style="52"/>
+    <col min="97" max="120" width="8.86328125" style="2" customWidth="1"/>
+    <col min="121" max="16384" width="9.1328125" style="52"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:121" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:121" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="37" t="s">
         <v>22</v>
       </c>
@@ -5092,7 +5092,7 @@
       <c r="BC1" s="35"/>
       <c r="BD1" s="33"/>
     </row>
-    <row r="2" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:121" x14ac:dyDescent="0.45">
       <c r="A2" s="50" t="s">
         <v>14</v>
       </c>
@@ -5157,7 +5157,7 @@
       <c r="BC2" s="94"/>
       <c r="BD2" s="32"/>
     </row>
-    <row r="3" spans="1:121" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:121" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="49"/>
       <c r="B3" s="49"/>
       <c r="C3" s="48">
@@ -5324,7 +5324,7 @@
       <c r="CM3" s="71"/>
       <c r="CN3" s="72"/>
     </row>
-    <row r="4" spans="1:121" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:121" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="49"/>
       <c r="B4" s="49"/>
       <c r="C4" s="45"/>
@@ -5387,7 +5387,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:121" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:121" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="30"/>
       <c r="B5" s="17"/>
       <c r="C5" s="42"/>
@@ -5630,7 +5630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:121" x14ac:dyDescent="0.45">
       <c r="A6" s="26" t="s">
         <v>27</v>
       </c>
@@ -5926,10 +5926,10 @@
         <v>Forest thinnings - Lo</v>
       </c>
       <c r="CO6" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CP6" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CQ6" s="52" t="str">
         <f t="shared" ref="CQ6:CQ21" si="2">BJ6</f>
@@ -6038,7 +6038,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:121" x14ac:dyDescent="0.45">
       <c r="A7" s="26" t="s">
         <v>29</v>
       </c>
@@ -6203,7 +6203,7 @@
       </c>
       <c r="BD7" s="32"/>
       <c r="BE7" s="52" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BG7" s="52" t="str">
         <f>"MINBIOWOO1"&amp;BE7</f>
@@ -6337,7 +6337,7 @@
         <v>6</v>
       </c>
       <c r="CP7" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CQ7" s="52" t="str">
         <f t="shared" si="2"/>
@@ -6446,7 +6446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:121" x14ac:dyDescent="0.45">
       <c r="A8" s="26" t="s">
         <v>31</v>
       </c>
@@ -6611,7 +6611,7 @@
       </c>
       <c r="BD8" s="32"/>
       <c r="BE8" s="52" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BG8" s="52" t="str">
         <f>"MINBIOWOO2"&amp;BE8</f>
@@ -6745,7 +6745,7 @@
         <v>6</v>
       </c>
       <c r="CP8" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CQ8" s="52" t="str">
         <f t="shared" si="2"/>
@@ -6854,7 +6854,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:121" x14ac:dyDescent="0.45">
       <c r="A9" s="26" t="s">
         <v>33</v>
       </c>
@@ -7019,7 +7019,7 @@
       </c>
       <c r="BD9" s="32"/>
       <c r="BE9" s="52" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BG9" s="52" t="str">
         <f>"MINBIOMSW1"&amp;BE9</f>
@@ -7153,7 +7153,7 @@
         <v>6</v>
       </c>
       <c r="CP9" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CQ9" s="52" t="str">
         <f t="shared" si="2"/>
@@ -7262,7 +7262,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:121" x14ac:dyDescent="0.45">
       <c r="A10" s="26" t="s">
         <v>35</v>
       </c>
@@ -7427,7 +7427,7 @@
       </c>
       <c r="BD10" s="32"/>
       <c r="BE10" s="52" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BG10" s="52" t="str">
         <f>"MINBIOTLW"&amp;BE10</f>
@@ -7561,7 +7561,7 @@
         <v>6</v>
       </c>
       <c r="CP10" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CQ10" s="52" t="str">
         <f t="shared" si="2"/>
@@ -7670,7 +7670,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:121" x14ac:dyDescent="0.45">
       <c r="A11" s="26" t="s">
         <v>37</v>
       </c>
@@ -7835,7 +7835,7 @@
       </c>
       <c r="BD11" s="32"/>
       <c r="BE11" s="52" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BG11" s="52" t="str">
         <f>"MINBIORVO"&amp;BE11</f>
@@ -7969,7 +7969,7 @@
         <v>6</v>
       </c>
       <c r="CP11" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CQ11" s="52" t="str">
         <f t="shared" si="2"/>
@@ -8078,7 +8078,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:121" x14ac:dyDescent="0.45">
       <c r="A12" s="26" t="s">
         <v>38</v>
       </c>
@@ -8243,7 +8243,7 @@
       </c>
       <c r="BD12" s="32"/>
       <c r="BE12" s="52" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BG12" s="52" t="str">
         <f>"MINBIOWOO3"&amp;BE12</f>
@@ -8377,7 +8377,7 @@
         <v>6</v>
       </c>
       <c r="CP12" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CQ12" s="52" t="str">
         <f t="shared" si="2"/>
@@ -8486,7 +8486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:121" x14ac:dyDescent="0.45">
       <c r="A13" s="26" t="s">
         <v>40</v>
       </c>
@@ -8651,7 +8651,7 @@
       </c>
       <c r="BD13" s="32"/>
       <c r="BE13" s="52" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BG13" s="52" t="str">
         <f>"MINBIOCATW"&amp;BE13</f>
@@ -8785,7 +8785,7 @@
         <v>6</v>
       </c>
       <c r="CP13" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CQ13" s="52" t="str">
         <f t="shared" si="2"/>
@@ -8894,7 +8894,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:121" x14ac:dyDescent="0.45">
       <c r="A14" s="26" t="s">
         <v>42</v>
       </c>
@@ -9059,7 +9059,7 @@
       </c>
       <c r="BD14" s="32"/>
       <c r="BE14" s="52" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BG14" s="52" t="str">
         <f>"MINBIOPIGW"&amp;BE14</f>
@@ -9193,7 +9193,7 @@
         <v>6</v>
       </c>
       <c r="CP14" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CQ14" s="52" t="str">
         <f t="shared" si="2"/>
@@ -9302,7 +9302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:121" x14ac:dyDescent="0.45">
       <c r="A15" s="26" t="s">
         <v>44</v>
       </c>
@@ -9467,7 +9467,7 @@
       </c>
       <c r="BD15" s="32"/>
       <c r="BE15" s="52" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BG15" s="52" t="str">
         <f>"MINBIOMSW2"&amp;BE15</f>
@@ -9601,7 +9601,7 @@
         <v>6</v>
       </c>
       <c r="CP15" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CQ15" s="52" t="str">
         <f t="shared" si="2"/>
@@ -9710,7 +9710,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:121" x14ac:dyDescent="0.45">
       <c r="A16" s="26" t="s">
         <v>45</v>
       </c>
@@ -10006,10 +10006,10 @@
         <v>Willow - Lo</v>
       </c>
       <c r="CO16" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CP16" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CQ16" s="52" t="str">
         <f t="shared" si="2"/>
@@ -10118,7 +10118,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:121" x14ac:dyDescent="0.45">
       <c r="A17" s="26" t="s">
         <v>46</v>
       </c>
@@ -10414,10 +10414,10 @@
         <v>Miscanthus - Lo</v>
       </c>
       <c r="CO17" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CP17" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CQ17" s="52" t="str">
         <f t="shared" si="2"/>
@@ -10526,7 +10526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:121" x14ac:dyDescent="0.45">
       <c r="A18" s="26" t="s">
         <v>47</v>
       </c>
@@ -10822,10 +10822,10 @@
         <v>Wheat - Lo</v>
       </c>
       <c r="CO18" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CP18" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CQ18" s="52" t="str">
         <f t="shared" si="2"/>
@@ -10934,7 +10934,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:121" x14ac:dyDescent="0.45">
       <c r="A19" s="26" t="s">
         <v>48</v>
       </c>
@@ -11230,10 +11230,10 @@
         <v>OSR - Lo</v>
       </c>
       <c r="CO19" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CP19" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CQ19" s="52" t="str">
         <f t="shared" si="2"/>
@@ -11342,7 +11342,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:121" x14ac:dyDescent="0.45">
       <c r="A20" s="26" t="s">
         <v>49</v>
       </c>
@@ -11639,10 +11639,10 @@
         <v>Crops Anaerobic - Lo</v>
       </c>
       <c r="CO20" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CP20" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CQ20" s="52" t="str">
         <f t="shared" si="2"/>
@@ -11751,7 +11751,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:121" x14ac:dyDescent="0.45">
       <c r="A21" s="26" t="s">
         <v>51</v>
       </c>
@@ -11916,7 +11916,7 @@
       </c>
       <c r="BD21" s="32"/>
       <c r="BE21" s="52" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BG21" s="52" t="str">
         <f>"MINBIOINDF"&amp;BE21</f>
@@ -12050,7 +12050,7 @@
         <v>6</v>
       </c>
       <c r="CP21" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CQ21" s="52" t="str">
         <f t="shared" si="2"/>
@@ -12159,7 +12159,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:121" x14ac:dyDescent="0.45">
       <c r="A22" s="30"/>
       <c r="B22" s="30"/>
       <c r="C22" s="30"/>
@@ -12170,7 +12170,7 @@
       <c r="H22" s="30"/>
       <c r="BD22" s="32"/>
     </row>
-    <row r="23" spans="1:121" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:121" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="23" t="s">
         <v>53</v>
       </c>
@@ -12179,7 +12179,7 @@
       </c>
       <c r="BD23" s="32"/>
     </row>
-    <row r="24" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:121" x14ac:dyDescent="0.45">
       <c r="A24" s="50" t="s">
         <v>14</v>
       </c>
@@ -12245,7 +12245,7 @@
       <c r="BD24" s="32"/>
       <c r="BG24" s="51"/>
     </row>
-    <row r="25" spans="1:121" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:121" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A25" s="41"/>
       <c r="B25" s="41"/>
       <c r="C25" s="40">
@@ -12412,7 +12412,7 @@
       <c r="CM25" s="71"/>
       <c r="CN25" s="72"/>
     </row>
-    <row r="26" spans="1:121" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:121" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="49"/>
       <c r="B26" s="49"/>
       <c r="C26" s="48"/>
@@ -12475,7 +12475,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:121" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:121" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27" s="30"/>
       <c r="B27" s="17"/>
       <c r="C27" s="42"/>
@@ -12718,7 +12718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:121" x14ac:dyDescent="0.45">
       <c r="A28" s="26" t="s">
         <v>56</v>
       </c>
@@ -13014,10 +13014,10 @@
         <v>Forest thinnings - Me</v>
       </c>
       <c r="CO28" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CP28" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CQ28" s="52" t="str">
         <f t="shared" ref="CQ28:CQ43" si="6">BJ28</f>
@@ -13126,7 +13126,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:121" x14ac:dyDescent="0.45">
       <c r="A29" s="26" t="s">
         <v>57</v>
       </c>
@@ -13291,7 +13291,7 @@
       </c>
       <c r="BD29" s="32"/>
       <c r="BE29" s="52" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BG29" s="52" t="str">
         <f>"MINBIOWOO1"&amp;BE29</f>
@@ -13425,7 +13425,7 @@
         <v>6</v>
       </c>
       <c r="CP29" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CQ29" s="52" t="str">
         <f t="shared" si="6"/>
@@ -13534,7 +13534,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:121" x14ac:dyDescent="0.45">
       <c r="A30" s="26" t="s">
         <v>58</v>
       </c>
@@ -13699,7 +13699,7 @@
       </c>
       <c r="BD30" s="32"/>
       <c r="BE30" s="52" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BG30" s="52" t="str">
         <f>"MINBIOWOO2"&amp;BE30</f>
@@ -13833,7 +13833,7 @@
         <v>6</v>
       </c>
       <c r="CP30" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CQ30" s="52" t="str">
         <f t="shared" si="6"/>
@@ -13942,7 +13942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:121" x14ac:dyDescent="0.45">
       <c r="A31" s="26" t="s">
         <v>59</v>
       </c>
@@ -14105,7 +14105,7 @@
       </c>
       <c r="BD31" s="32"/>
       <c r="BE31" s="52" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BG31" s="52" t="str">
         <f>"MINBIOMSW1"&amp;BE31</f>
@@ -14239,7 +14239,7 @@
         <v>6</v>
       </c>
       <c r="CP31" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CQ31" s="52" t="str">
         <f t="shared" si="6"/>
@@ -14348,7 +14348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:121" x14ac:dyDescent="0.45">
       <c r="A32" s="26" t="s">
         <v>60</v>
       </c>
@@ -14513,7 +14513,7 @@
       </c>
       <c r="BD32" s="32"/>
       <c r="BE32" s="52" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BG32" s="52" t="str">
         <f>"MINBIOTLW"&amp;BE32</f>
@@ -14647,7 +14647,7 @@
         <v>6</v>
       </c>
       <c r="CP32" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CQ32" s="52" t="str">
         <f t="shared" si="6"/>
@@ -14756,7 +14756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:121" x14ac:dyDescent="0.45">
       <c r="A33" s="26" t="s">
         <v>61</v>
       </c>
@@ -14921,7 +14921,7 @@
       </c>
       <c r="BD33" s="32"/>
       <c r="BE33" s="52" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BG33" s="52" t="str">
         <f>"MINBIORVO"&amp;BE33</f>
@@ -15055,7 +15055,7 @@
         <v>6</v>
       </c>
       <c r="CP33" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CQ33" s="52" t="str">
         <f t="shared" si="6"/>
@@ -15164,7 +15164,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:121" x14ac:dyDescent="0.45">
       <c r="A34" s="26" t="s">
         <v>62</v>
       </c>
@@ -15329,7 +15329,7 @@
       </c>
       <c r="BD34" s="32"/>
       <c r="BE34" s="52" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BG34" s="52" t="str">
         <f>"MINBIOWOO3"&amp;BE34</f>
@@ -15463,7 +15463,7 @@
         <v>6</v>
       </c>
       <c r="CP34" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CQ34" s="52" t="str">
         <f t="shared" si="6"/>
@@ -15572,7 +15572,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:121" x14ac:dyDescent="0.45">
       <c r="A35" s="26" t="s">
         <v>63</v>
       </c>
@@ -15737,7 +15737,7 @@
       </c>
       <c r="BD35" s="32"/>
       <c r="BE35" s="52" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BG35" s="52" t="str">
         <f>"MINBIOCATW"&amp;BE35</f>
@@ -15871,7 +15871,7 @@
         <v>6</v>
       </c>
       <c r="CP35" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CQ35" s="52" t="str">
         <f t="shared" si="6"/>
@@ -15980,7 +15980,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:121" x14ac:dyDescent="0.45">
       <c r="A36" s="26" t="s">
         <v>64</v>
       </c>
@@ -16145,7 +16145,7 @@
       </c>
       <c r="BD36" s="32"/>
       <c r="BE36" s="52" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BG36" s="52" t="str">
         <f>"MINBIOPIGW"&amp;BE36</f>
@@ -16279,7 +16279,7 @@
         <v>6</v>
       </c>
       <c r="CP36" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CQ36" s="52" t="str">
         <f t="shared" si="6"/>
@@ -16388,7 +16388,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:121" x14ac:dyDescent="0.45">
       <c r="A37" s="26" t="s">
         <v>65</v>
       </c>
@@ -16553,7 +16553,7 @@
       </c>
       <c r="BD37" s="32"/>
       <c r="BE37" s="52" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BG37" s="52" t="str">
         <f>"MINBIOMSW2"&amp;BE37</f>
@@ -16687,7 +16687,7 @@
         <v>6</v>
       </c>
       <c r="CP37" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CQ37" s="52" t="str">
         <f t="shared" si="6"/>
@@ -16796,7 +16796,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:121" x14ac:dyDescent="0.45">
       <c r="A38" s="26" t="s">
         <v>66</v>
       </c>
@@ -17092,10 +17092,10 @@
         <v>Willow - Me</v>
       </c>
       <c r="CO38" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CP38" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CQ38" s="52" t="str">
         <f t="shared" si="6"/>
@@ -17204,7 +17204,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:121" x14ac:dyDescent="0.45">
       <c r="A39" s="26" t="s">
         <v>67</v>
       </c>
@@ -17500,10 +17500,10 @@
         <v>Miscanthus - Me</v>
       </c>
       <c r="CO39" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CP39" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CQ39" s="52" t="str">
         <f t="shared" si="6"/>
@@ -17612,7 +17612,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:121" x14ac:dyDescent="0.45">
       <c r="A40" s="26" t="s">
         <v>68</v>
       </c>
@@ -17908,10 +17908,10 @@
         <v>Wheat - Me</v>
       </c>
       <c r="CO40" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CP40" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CQ40" s="52" t="str">
         <f t="shared" si="6"/>
@@ -18020,7 +18020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:121" x14ac:dyDescent="0.45">
       <c r="A41" s="26" t="s">
         <v>69</v>
       </c>
@@ -18316,10 +18316,10 @@
         <v>OSR - Me</v>
       </c>
       <c r="CO41" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CP41" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CQ41" s="52" t="str">
         <f t="shared" si="6"/>
@@ -18428,7 +18428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:121" x14ac:dyDescent="0.45">
       <c r="A42" s="26" t="s">
         <v>70</v>
       </c>
@@ -18724,10 +18724,10 @@
         <v>Crops Anaerobic - Me</v>
       </c>
       <c r="CO42" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CP42" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CQ42" s="52" t="str">
         <f t="shared" si="6"/>
@@ -18836,7 +18836,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:121" x14ac:dyDescent="0.45">
       <c r="A43" s="26" t="s">
         <v>71</v>
       </c>
@@ -19001,7 +19001,7 @@
       </c>
       <c r="BD43" s="32"/>
       <c r="BE43" s="52" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BG43" s="52" t="str">
         <f>"MINBIOINDF"&amp;BE43</f>
@@ -19135,7 +19135,7 @@
         <v>6</v>
       </c>
       <c r="CP43" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CQ43" s="52" t="str">
         <f t="shared" si="6"/>
@@ -19244,10 +19244,10 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:121" x14ac:dyDescent="0.45">
       <c r="BD44" s="32"/>
     </row>
-    <row r="45" spans="1:121" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:121" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A45" s="56" t="s">
         <v>72</v>
       </c>
@@ -19256,7 +19256,7 @@
       </c>
       <c r="BD45" s="32"/>
     </row>
-    <row r="46" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:121" x14ac:dyDescent="0.45">
       <c r="A46" s="50" t="s">
         <v>14</v>
       </c>
@@ -19322,7 +19322,7 @@
       <c r="BD46" s="32"/>
       <c r="BG46" s="51"/>
     </row>
-    <row r="47" spans="1:121" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:121" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A47" s="41"/>
       <c r="B47" s="41"/>
       <c r="C47" s="40">
@@ -19489,7 +19489,7 @@
       <c r="CM47" s="71"/>
       <c r="CN47" s="72"/>
     </row>
-    <row r="48" spans="1:121" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:121" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A48" s="49"/>
       <c r="B48" s="49"/>
       <c r="C48" s="48"/>
@@ -19552,7 +19552,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="1:121" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:121" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A49" s="30"/>
       <c r="B49" s="17"/>
       <c r="C49" s="42"/>
@@ -19795,7 +19795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:121" x14ac:dyDescent="0.45">
       <c r="A50" s="26" t="s">
         <v>74</v>
       </c>
@@ -20091,10 +20091,10 @@
         <v>Forest thinnings - Hi</v>
       </c>
       <c r="CO50" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CP50" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CQ50" s="52" t="str">
         <f t="shared" ref="CQ50:CQ65" si="10">BJ50</f>
@@ -20203,7 +20203,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:121" x14ac:dyDescent="0.45">
       <c r="A51" s="26" t="s">
         <v>75</v>
       </c>
@@ -20368,7 +20368,7 @@
       </c>
       <c r="BD51" s="32"/>
       <c r="BE51" s="52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BG51" s="52" t="str">
         <f>"MINBIOWOO1"&amp;BE51</f>
@@ -20502,7 +20502,7 @@
         <v>6</v>
       </c>
       <c r="CP51" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CQ51" s="52" t="str">
         <f t="shared" si="10"/>
@@ -20611,7 +20611,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:121" x14ac:dyDescent="0.45">
       <c r="A52" s="26" t="s">
         <v>76</v>
       </c>
@@ -20776,7 +20776,7 @@
       </c>
       <c r="BD52" s="32"/>
       <c r="BE52" s="52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BG52" s="52" t="str">
         <f>"MINBIOWOO2"&amp;BE52</f>
@@ -20910,7 +20910,7 @@
         <v>6</v>
       </c>
       <c r="CP52" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CQ52" s="52" t="str">
         <f t="shared" si="10"/>
@@ -21019,7 +21019,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:121" x14ac:dyDescent="0.45">
       <c r="A53" s="26" t="s">
         <v>77</v>
       </c>
@@ -21184,7 +21184,7 @@
       </c>
       <c r="BD53" s="32"/>
       <c r="BE53" s="52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BG53" s="52" t="str">
         <f>"MINBIOMSW1"&amp;BE53</f>
@@ -21318,7 +21318,7 @@
         <v>6</v>
       </c>
       <c r="CP53" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CQ53" s="52" t="str">
         <f t="shared" si="10"/>
@@ -21427,7 +21427,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:121" x14ac:dyDescent="0.45">
       <c r="A54" s="26" t="s">
         <v>78</v>
       </c>
@@ -21592,7 +21592,7 @@
       </c>
       <c r="BD54" s="32"/>
       <c r="BE54" s="52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BG54" s="52" t="str">
         <f>"MINBIOTLW"&amp;BE54</f>
@@ -21726,7 +21726,7 @@
         <v>6</v>
       </c>
       <c r="CP54" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CQ54" s="52" t="str">
         <f t="shared" si="10"/>
@@ -21835,7 +21835,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:121" x14ac:dyDescent="0.45">
       <c r="A55" s="26" t="s">
         <v>79</v>
       </c>
@@ -22000,7 +22000,7 @@
       </c>
       <c r="BD55" s="32"/>
       <c r="BE55" s="52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BG55" s="52" t="str">
         <f>"MINBIORVO"&amp;BE55</f>
@@ -22134,7 +22134,7 @@
         <v>6</v>
       </c>
       <c r="CP55" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CQ55" s="52" t="str">
         <f t="shared" si="10"/>
@@ -22243,7 +22243,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:121" x14ac:dyDescent="0.45">
       <c r="A56" s="26" t="s">
         <v>80</v>
       </c>
@@ -22408,7 +22408,7 @@
       </c>
       <c r="BD56" s="32"/>
       <c r="BE56" s="52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BG56" s="52" t="str">
         <f>"MINBIOWOO3"&amp;BE56</f>
@@ -22542,7 +22542,7 @@
         <v>6</v>
       </c>
       <c r="CP56" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CQ56" s="52" t="str">
         <f t="shared" si="10"/>
@@ -22651,7 +22651,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:121" x14ac:dyDescent="0.45">
       <c r="A57" s="26" t="s">
         <v>81</v>
       </c>
@@ -22816,7 +22816,7 @@
       </c>
       <c r="BD57" s="32"/>
       <c r="BE57" s="52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BG57" s="52" t="str">
         <f>"MINBIOCATW"&amp;BE57</f>
@@ -22950,7 +22950,7 @@
         <v>6</v>
       </c>
       <c r="CP57" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CQ57" s="52" t="str">
         <f t="shared" si="10"/>
@@ -23059,7 +23059,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:121" x14ac:dyDescent="0.45">
       <c r="A58" s="26" t="s">
         <v>82</v>
       </c>
@@ -23224,7 +23224,7 @@
       </c>
       <c r="BD58" s="32"/>
       <c r="BE58" s="52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BG58" s="52" t="str">
         <f>"MINBIOPIGW"&amp;BE58</f>
@@ -23358,7 +23358,7 @@
         <v>6</v>
       </c>
       <c r="CP58" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CQ58" s="52" t="str">
         <f t="shared" si="10"/>
@@ -23467,7 +23467,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:121" x14ac:dyDescent="0.45">
       <c r="A59" s="26" t="s">
         <v>83</v>
       </c>
@@ -23632,7 +23632,7 @@
       </c>
       <c r="BD59" s="32"/>
       <c r="BE59" s="52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BG59" s="52" t="str">
         <f>"MINBIOMSW2"&amp;BE59</f>
@@ -23766,7 +23766,7 @@
         <v>6</v>
       </c>
       <c r="CP59" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CQ59" s="52" t="str">
         <f t="shared" si="10"/>
@@ -23875,7 +23875,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:121" x14ac:dyDescent="0.45">
       <c r="A60" s="26" t="s">
         <v>84</v>
       </c>
@@ -24171,10 +24171,10 @@
         <v>Willow - Hi</v>
       </c>
       <c r="CO60" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CP60" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CQ60" s="52" t="str">
         <f t="shared" si="10"/>
@@ -24283,7 +24283,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:121" x14ac:dyDescent="0.45">
       <c r="A61" s="26" t="s">
         <v>85</v>
       </c>
@@ -24579,10 +24579,10 @@
         <v>Miscanthus - Hi</v>
       </c>
       <c r="CO61" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CP61" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CQ61" s="52" t="str">
         <f t="shared" si="10"/>
@@ -24691,7 +24691,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:121" x14ac:dyDescent="0.45">
       <c r="A62" s="26" t="s">
         <v>86</v>
       </c>
@@ -24987,10 +24987,10 @@
         <v>Wheat - Hi</v>
       </c>
       <c r="CO62" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CP62" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CQ62" s="52" t="str">
         <f t="shared" si="10"/>
@@ -25099,7 +25099,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:121" x14ac:dyDescent="0.45">
       <c r="A63" s="26" t="s">
         <v>87</v>
       </c>
@@ -25395,10 +25395,10 @@
         <v>OSR - Hi</v>
       </c>
       <c r="CO63" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CP63" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CQ63" s="52" t="str">
         <f t="shared" si="10"/>
@@ -25507,7 +25507,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:121" x14ac:dyDescent="0.45">
       <c r="A64" s="26" t="s">
         <v>88</v>
       </c>
@@ -25803,10 +25803,10 @@
         <v>Crops Anaerobic - Hi</v>
       </c>
       <c r="CO64" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CP64" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CQ64" s="52" t="str">
         <f t="shared" si="10"/>
@@ -25915,7 +25915,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:121" x14ac:dyDescent="0.45">
       <c r="A65" s="26" t="s">
         <v>89</v>
       </c>
@@ -26080,7 +26080,7 @@
       </c>
       <c r="BD65" s="32"/>
       <c r="BE65" s="52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BG65" s="52" t="str">
         <f>"MINBIOINDF"&amp;BE65</f>
@@ -26214,7 +26214,7 @@
         <v>6</v>
       </c>
       <c r="CP65" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CQ65" s="52" t="str">
         <f t="shared" si="10"/>
@@ -26323,7 +26323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:121" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:121" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A66" s="22"/>
       <c r="B66" s="22"/>
       <c r="C66" s="22"/>
@@ -26381,7 +26381,7 @@
       <c r="BC66" s="22"/>
       <c r="BD66" s="21"/>
     </row>
-    <row r="67" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:121" x14ac:dyDescent="0.45">
       <c r="CJ67" s="66">
         <f>SUM(CJ6:CJ21,CJ28:CJ43,CJ50:CJ65)</f>
         <v>155.46564495117042</v>
@@ -26390,7 +26390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:121" x14ac:dyDescent="0.45">
       <c r="AB68" s="20">
         <f>SUM(AB6:AB21,AB28:AB43,AB50:AB65)</f>
         <v>2829139.6648809365</v>
@@ -26424,30 +26424,32 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:DO69"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView topLeftCell="BV26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="CO28" sqref="CO28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" style="52" customWidth="1"/>
+    <col min="1" max="1" width="25.73046875" style="52" customWidth="1"/>
     <col min="2" max="2" width="13" style="52" bestFit="1" customWidth="1"/>
-    <col min="3" max="12" width="9.42578125" style="52" customWidth="1"/>
+    <col min="3" max="12" width="9.3984375" style="52" customWidth="1"/>
     <col min="13" max="28" width="11" style="52" customWidth="1"/>
-    <col min="29" max="58" width="9.140625" style="52"/>
-    <col min="59" max="59" width="18.28515625" style="52" customWidth="1"/>
-    <col min="60" max="60" width="23.5703125" style="52" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="9.85546875" style="52" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="9.42578125" style="52" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="5.7109375" style="52" bestFit="1" customWidth="1"/>
-    <col min="64" max="89" width="9.140625" style="52"/>
-    <col min="90" max="90" width="17.140625" style="52" customWidth="1"/>
-    <col min="91" max="91" width="23.5703125" style="52" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="9.85546875" style="52" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="9.85546875" style="52" customWidth="1"/>
-    <col min="94" max="94" width="9.42578125" style="52" bestFit="1" customWidth="1"/>
-    <col min="95" max="16384" width="9.140625" style="52"/>
+    <col min="29" max="58" width="9.1328125" style="52"/>
+    <col min="59" max="59" width="18.265625" style="52" customWidth="1"/>
+    <col min="60" max="60" width="23.59765625" style="52" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="9.86328125" style="52" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="9.3984375" style="52" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="5.73046875" style="52" bestFit="1" customWidth="1"/>
+    <col min="64" max="89" width="9.1328125" style="52"/>
+    <col min="90" max="90" width="17.1328125" style="52" customWidth="1"/>
+    <col min="91" max="91" width="23.59765625" style="52" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="9.86328125" style="52" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="9.86328125" style="52" customWidth="1"/>
+    <col min="94" max="94" width="9.3984375" style="52" bestFit="1" customWidth="1"/>
+    <col min="95" max="16384" width="9.1328125" style="52"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:119" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="37" t="s">
         <v>22</v>
       </c>
@@ -26509,7 +26511,7 @@
       <c r="BC1" s="35"/>
       <c r="BD1" s="33"/>
     </row>
-    <row r="2" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A2" s="50" t="s">
         <v>14</v>
       </c>
@@ -26574,7 +26576,7 @@
       <c r="BC2" s="94"/>
       <c r="BD2" s="32"/>
     </row>
-    <row r="3" spans="1:119" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:119" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="49"/>
       <c r="B3" s="49"/>
       <c r="C3" s="48">
@@ -26790,7 +26792,7 @@
       <c r="DN3" s="2"/>
       <c r="DO3" s="2"/>
     </row>
-    <row r="4" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:119" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="49"/>
       <c r="B4" s="49"/>
       <c r="C4" s="45"/>
@@ -26847,7 +26849,7 @@
       <c r="BC4" s="43"/>
       <c r="BD4" s="32"/>
       <c r="BG4" s="31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="BL4" s="2"/>
       <c r="BM4" s="2"/>
@@ -26875,7 +26877,7 @@
       <c r="CI4" s="2"/>
       <c r="CJ4" s="2"/>
       <c r="CL4" s="31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="CR4" s="2"/>
       <c r="CS4" s="2"/>
@@ -26902,7 +26904,7 @@
       <c r="DN4" s="2"/>
       <c r="DO4" s="2"/>
     </row>
-    <row r="5" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:119" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="30"/>
       <c r="B5" s="17"/>
       <c r="C5" s="42"/>
@@ -27139,7 +27141,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="6" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A6" s="26" t="s">
         <v>27</v>
       </c>
@@ -27432,10 +27434,10 @@
         <v>Forest thinnings - Lo</v>
       </c>
       <c r="CN6" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CO6" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CP6" s="52" t="str">
         <f t="shared" ref="CP6:CP21" si="2">BJ6</f>
@@ -27541,7 +27543,7 @@
         <v>3.45</v>
       </c>
     </row>
-    <row r="7" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A7" s="26" t="s">
         <v>29</v>
       </c>
@@ -27837,7 +27839,7 @@
         <v>6</v>
       </c>
       <c r="CO7" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CP7" s="52" t="str">
         <f t="shared" si="2"/>
@@ -27943,7 +27945,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="8" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A8" s="26" t="s">
         <v>31</v>
       </c>
@@ -28239,7 +28241,7 @@
         <v>6</v>
       </c>
       <c r="CO8" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CP8" s="52" t="str">
         <f t="shared" si="2"/>
@@ -28345,7 +28347,7 @@
         <v>1.4761904761904763</v>
       </c>
     </row>
-    <row r="9" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A9" s="26" t="s">
         <v>33</v>
       </c>
@@ -28641,7 +28643,7 @@
         <v>6</v>
       </c>
       <c r="CO9" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CP9" s="52" t="str">
         <f t="shared" si="2"/>
@@ -28747,7 +28749,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A10" s="26" t="s">
         <v>35</v>
       </c>
@@ -29043,7 +29045,7 @@
         <v>6</v>
       </c>
       <c r="CO10" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CP10" s="52" t="str">
         <f t="shared" si="2"/>
@@ -29149,7 +29151,7 @@
         <v>8.720930232558139</v>
       </c>
     </row>
-    <row r="11" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A11" s="26" t="s">
         <v>37</v>
       </c>
@@ -29445,7 +29447,7 @@
         <v>6</v>
       </c>
       <c r="CO11" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CP11" s="52" t="str">
         <f t="shared" si="2"/>
@@ -29551,7 +29553,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="12" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A12" s="26" t="s">
         <v>38</v>
       </c>
@@ -29847,7 +29849,7 @@
         <v>6</v>
       </c>
       <c r="CO12" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CP12" s="52" t="str">
         <f t="shared" si="2"/>
@@ -29953,7 +29955,7 @@
         <v>2.8246554326589375</v>
       </c>
     </row>
-    <row r="13" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A13" s="26" t="s">
         <v>40</v>
       </c>
@@ -30249,7 +30251,7 @@
         <v>6</v>
       </c>
       <c r="CO13" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CP13" s="52" t="str">
         <f t="shared" si="2"/>
@@ -30355,7 +30357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A14" s="26" t="s">
         <v>42</v>
       </c>
@@ -30651,7 +30653,7 @@
         <v>6</v>
       </c>
       <c r="CO14" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CP14" s="52" t="str">
         <f t="shared" si="2"/>
@@ -30757,7 +30759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A15" s="26" t="s">
         <v>44</v>
       </c>
@@ -31053,7 +31055,7 @@
         <v>6</v>
       </c>
       <c r="CO15" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CP15" s="52" t="str">
         <f t="shared" si="2"/>
@@ -31159,7 +31161,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A16" s="26" t="s">
         <v>45</v>
       </c>
@@ -31452,10 +31454,10 @@
         <v>Willow - Lo</v>
       </c>
       <c r="CN16" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CO16" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CP16" s="52" t="str">
         <f t="shared" si="2"/>
@@ -31561,7 +31563,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A17" s="26" t="s">
         <v>46</v>
       </c>
@@ -31854,10 +31856,10 @@
         <v>Miscanthus - Lo</v>
       </c>
       <c r="CN17" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CO17" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CP17" s="52" t="str">
         <f t="shared" si="2"/>
@@ -31963,7 +31965,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A18" s="26" t="s">
         <v>47</v>
       </c>
@@ -32256,10 +32258,10 @@
         <v>Wheat - Lo</v>
       </c>
       <c r="CN18" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CO18" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CP18" s="52" t="str">
         <f t="shared" si="2"/>
@@ -32365,7 +32367,7 @@
         <v>19.01805954934806</v>
       </c>
     </row>
-    <row r="19" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A19" s="26" t="s">
         <v>48</v>
       </c>
@@ -32658,10 +32660,10 @@
         <v>OSR - Lo</v>
       </c>
       <c r="CN19" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CO19" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CP19" s="52" t="str">
         <f t="shared" si="2"/>
@@ -32767,7 +32769,7 @@
         <v>21.5614014897169</v>
       </c>
     </row>
-    <row r="20" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A20" s="26" t="s">
         <v>49</v>
       </c>
@@ -33061,10 +33063,10 @@
         <v>Crops Anaerobic - Lo</v>
       </c>
       <c r="CN20" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CO20" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CP20" s="52" t="str">
         <f t="shared" si="2"/>
@@ -33170,7 +33172,7 @@
         <v>4.6880473492782269</v>
       </c>
     </row>
-    <row r="21" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A21" s="26" t="s">
         <v>51</v>
       </c>
@@ -33466,7 +33468,7 @@
         <v>6</v>
       </c>
       <c r="CO21" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CP21" s="52" t="str">
         <f t="shared" si="2"/>
@@ -33572,7 +33574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A22" s="30"/>
       <c r="B22" s="30"/>
       <c r="C22" s="70">
@@ -33730,7 +33732,7 @@
       <c r="DN22" s="2"/>
       <c r="DO22" s="2"/>
     </row>
-    <row r="23" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:119" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="23" t="s">
         <v>53</v>
       </c>
@@ -33788,7 +33790,7 @@
       <c r="DN23" s="2"/>
       <c r="DO23" s="2"/>
     </row>
-    <row r="24" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A24" s="50" t="s">
         <v>14</v>
       </c>
@@ -33903,7 +33905,7 @@
       <c r="DN24" s="2"/>
       <c r="DO24" s="2"/>
     </row>
-    <row r="25" spans="1:119" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:119" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A25" s="41"/>
       <c r="B25" s="41"/>
       <c r="C25" s="40">
@@ -34119,7 +34121,7 @@
       <c r="DN25" s="2"/>
       <c r="DO25" s="2"/>
     </row>
-    <row r="26" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:119" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A26" s="49"/>
       <c r="B26" s="49"/>
       <c r="C26" s="48"/>
@@ -34176,7 +34178,7 @@
       <c r="BC26" s="46"/>
       <c r="BD26" s="32"/>
       <c r="BG26" s="31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="BL26" s="2"/>
       <c r="BM26" s="2"/>
@@ -34204,7 +34206,7 @@
       <c r="CI26" s="2"/>
       <c r="CJ26" s="2"/>
       <c r="CL26" s="31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="CR26" s="2"/>
       <c r="CS26" s="2"/>
@@ -34231,7 +34233,7 @@
       <c r="DN26" s="2"/>
       <c r="DO26" s="2"/>
     </row>
-    <row r="27" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:119" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27" s="30"/>
       <c r="B27" s="17"/>
       <c r="C27" s="42"/>
@@ -34468,7 +34470,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="28" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A28" s="26" t="s">
         <v>56</v>
       </c>
@@ -34761,10 +34763,10 @@
         <v>Forest thinnings - Me</v>
       </c>
       <c r="CN28" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CO28" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CP28" s="52" t="str">
         <f t="shared" ref="CP28:CP43" si="7">BJ28</f>
@@ -34870,7 +34872,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A29" s="26" t="s">
         <v>57</v>
       </c>
@@ -35166,7 +35168,7 @@
         <v>6</v>
       </c>
       <c r="CO29" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CP29" s="52" t="str">
         <f t="shared" si="7"/>
@@ -35272,7 +35274,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A30" s="26" t="s">
         <v>58</v>
       </c>
@@ -35568,7 +35570,7 @@
         <v>6</v>
       </c>
       <c r="CO30" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CP30" s="52" t="str">
         <f t="shared" si="7"/>
@@ -35674,7 +35676,7 @@
         <v>2.7414965986394559</v>
       </c>
     </row>
-    <row r="31" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A31" s="26" t="s">
         <v>59</v>
       </c>
@@ -35968,7 +35970,7 @@
         <v>6</v>
       </c>
       <c r="CO31" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CP31" s="52" t="str">
         <f t="shared" si="7"/>
@@ -36074,7 +36076,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="32" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A32" s="26" t="s">
         <v>60</v>
       </c>
@@ -36370,7 +36372,7 @@
         <v>6</v>
       </c>
       <c r="CO32" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CP32" s="52" t="str">
         <f t="shared" si="7"/>
@@ -36476,7 +36478,7 @@
         <v>10.174418604651162</v>
       </c>
     </row>
-    <row r="33" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A33" s="26" t="s">
         <v>61</v>
       </c>
@@ -36772,7 +36774,7 @@
         <v>6</v>
       </c>
       <c r="CO33" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CP33" s="52" t="str">
         <f t="shared" si="7"/>
@@ -36878,7 +36880,7 @@
         <v>22.388888888888889</v>
       </c>
     </row>
-    <row r="34" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A34" s="26" t="s">
         <v>62</v>
       </c>
@@ -37174,7 +37176,7 @@
         <v>6</v>
       </c>
       <c r="CO34" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CP34" s="52" t="str">
         <f t="shared" si="7"/>
@@ -37280,7 +37282,7 @@
         <v>4.2369831489884069</v>
       </c>
     </row>
-    <row r="35" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A35" s="26" t="s">
         <v>63</v>
       </c>
@@ -37576,7 +37578,7 @@
         <v>6</v>
       </c>
       <c r="CO35" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CP35" s="52" t="str">
         <f t="shared" si="7"/>
@@ -37682,7 +37684,7 @@
         <v>4.3634210960160313</v>
       </c>
     </row>
-    <row r="36" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A36" s="26" t="s">
         <v>64</v>
       </c>
@@ -37978,7 +37980,7 @@
         <v>6</v>
       </c>
       <c r="CO36" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CP36" s="52" t="str">
         <f t="shared" si="7"/>
@@ -38084,7 +38086,7 @@
         <v>4.1371696317781641</v>
       </c>
     </row>
-    <row r="37" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A37" s="26" t="s">
         <v>65</v>
       </c>
@@ -38380,7 +38382,7 @@
         <v>6</v>
       </c>
       <c r="CO37" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CP37" s="52" t="str">
         <f t="shared" si="7"/>
@@ -38486,7 +38488,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="38" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A38" s="26" t="s">
         <v>66</v>
       </c>
@@ -38779,10 +38781,10 @@
         <v>Willow - Me</v>
       </c>
       <c r="CN38" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CO38" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CP38" s="52" t="str">
         <f t="shared" si="7"/>
@@ -38888,7 +38890,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A39" s="26" t="s">
         <v>67</v>
       </c>
@@ -39181,10 +39183,10 @@
         <v>Miscanthus - Me</v>
       </c>
       <c r="CN39" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CO39" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CP39" s="52" t="str">
         <f t="shared" si="7"/>
@@ -39290,7 +39292,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A40" s="26" t="s">
         <v>68</v>
       </c>
@@ -39583,10 +39585,10 @@
         <v>Wheat - Me</v>
       </c>
       <c r="CN40" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CO40" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CP40" s="52" t="str">
         <f t="shared" si="7"/>
@@ -39692,7 +39694,7 @@
         <v>22.821671459217672</v>
       </c>
     </row>
-    <row r="41" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A41" s="26" t="s">
         <v>69</v>
       </c>
@@ -39985,10 +39987,10 @@
         <v>OSR - Me</v>
       </c>
       <c r="CN41" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CO41" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CP41" s="52" t="str">
         <f t="shared" si="7"/>
@@ -40094,7 +40096,7 @@
         <v>31.910874204781013</v>
       </c>
     </row>
-    <row r="42" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A42" s="26" t="s">
         <v>70</v>
       </c>
@@ -40387,10 +40389,10 @@
         <v>Crops Anaerobic - Me</v>
       </c>
       <c r="CN42" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CO42" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CP42" s="52" t="str">
         <f t="shared" si="7"/>
@@ -40496,7 +40498,7 @@
         <v>6.0944615540616951</v>
       </c>
     </row>
-    <row r="43" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A43" s="26" t="s">
         <v>71</v>
       </c>
@@ -40792,7 +40794,7 @@
         <v>6</v>
       </c>
       <c r="CO43" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CP43" s="52" t="str">
         <f t="shared" si="7"/>
@@ -40898,7 +40900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:119" x14ac:dyDescent="0.45">
       <c r="K44" s="20">
         <f>SUM(K28:K43)</f>
         <v>188768.43828488313</v>
@@ -41022,7 +41024,7 @@
       <c r="DN44" s="2"/>
       <c r="DO44" s="2"/>
     </row>
-    <row r="45" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:119" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A45" s="56" t="s">
         <v>72</v>
       </c>
@@ -41080,7 +41082,7 @@
       <c r="DN45" s="2"/>
       <c r="DO45" s="2"/>
     </row>
-    <row r="46" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A46" s="50" t="s">
         <v>14</v>
       </c>
@@ -41195,7 +41197,7 @@
       <c r="DN46" s="2"/>
       <c r="DO46" s="2"/>
     </row>
-    <row r="47" spans="1:119" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:119" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A47" s="41"/>
       <c r="B47" s="41"/>
       <c r="C47" s="40">
@@ -41411,7 +41413,7 @@
       <c r="DN47" s="2"/>
       <c r="DO47" s="2"/>
     </row>
-    <row r="48" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:119" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A48" s="49"/>
       <c r="B48" s="49"/>
       <c r="C48" s="48"/>
@@ -41468,7 +41470,7 @@
       <c r="BC48" s="46"/>
       <c r="BD48" s="32"/>
       <c r="BG48" s="31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="BL48" s="2"/>
       <c r="BM48" s="2"/>
@@ -41496,7 +41498,7 @@
       <c r="CI48" s="2"/>
       <c r="CJ48" s="2"/>
       <c r="CL48" s="31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="CR48" s="2"/>
       <c r="CS48" s="2"/>
@@ -41523,7 +41525,7 @@
       <c r="DN48" s="2"/>
       <c r="DO48" s="2"/>
     </row>
-    <row r="49" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:119" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A49" s="30"/>
       <c r="B49" s="17"/>
       <c r="C49" s="42"/>
@@ -41760,7 +41762,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="50" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A50" s="26" t="s">
         <v>74</v>
       </c>
@@ -42053,10 +42055,10 @@
         <v>Forest thinnings - Hi</v>
       </c>
       <c r="CN50" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CO50" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CP50" s="52" t="str">
         <f t="shared" ref="CP50:CP65" si="12">BJ50</f>
@@ -42162,7 +42164,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A51" s="26" t="s">
         <v>75</v>
       </c>
@@ -42458,7 +42460,7 @@
         <v>6</v>
       </c>
       <c r="CO51" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CP51" s="52" t="str">
         <f t="shared" si="12"/>
@@ -42564,7 +42566,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A52" s="26" t="s">
         <v>76</v>
       </c>
@@ -42860,7 +42862,7 @@
         <v>6</v>
       </c>
       <c r="CO52" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CP52" s="52" t="str">
         <f t="shared" si="12"/>
@@ -42966,7 +42968,7 @@
         <v>5.2721088435374153</v>
       </c>
     </row>
-    <row r="53" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A53" s="26" t="s">
         <v>77</v>
       </c>
@@ -43262,7 +43264,7 @@
         <v>6</v>
       </c>
       <c r="CO53" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CP53" s="52" t="str">
         <f t="shared" si="12"/>
@@ -43368,7 +43370,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="54" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A54" s="26" t="s">
         <v>78</v>
       </c>
@@ -43664,7 +43666,7 @@
         <v>6</v>
       </c>
       <c r="CO54" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CP54" s="52" t="str">
         <f t="shared" si="12"/>
@@ -43770,7 +43772,7 @@
         <v>11.046511627906977</v>
       </c>
     </row>
-    <row r="55" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A55" s="26" t="s">
         <v>79</v>
       </c>
@@ -44066,7 +44068,7 @@
         <v>6</v>
       </c>
       <c r="CO55" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CP55" s="52" t="str">
         <f t="shared" si="12"/>
@@ -44172,7 +44174,7 @@
         <v>27.777777777777775</v>
       </c>
     </row>
-    <row r="56" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A56" s="26" t="s">
         <v>80</v>
       </c>
@@ -44468,7 +44470,7 @@
         <v>6</v>
       </c>
       <c r="CO56" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CP56" s="52" t="str">
         <f t="shared" si="12"/>
@@ -44574,7 +44576,7 @@
         <v>7.0616385816473448</v>
       </c>
     </row>
-    <row r="57" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A57" s="26" t="s">
         <v>81</v>
       </c>
@@ -44870,7 +44872,7 @@
         <v>6</v>
       </c>
       <c r="CO57" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CP57" s="52" t="str">
         <f t="shared" si="12"/>
@@ -44976,7 +44978,7 @@
         <v>9.434423991386014</v>
       </c>
     </row>
-    <row r="58" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A58" s="26" t="s">
         <v>82</v>
       </c>
@@ -45272,7 +45274,7 @@
         <v>6</v>
       </c>
       <c r="CO58" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CP58" s="52" t="str">
         <f t="shared" si="12"/>
@@ -45378,7 +45380,7 @@
         <v>8.9452316362771107</v>
       </c>
     </row>
-    <row r="59" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A59" s="26" t="s">
         <v>83</v>
       </c>
@@ -45674,7 +45676,7 @@
         <v>6</v>
       </c>
       <c r="CO59" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CP59" s="52" t="str">
         <f t="shared" si="12"/>
@@ -45780,7 +45782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A60" s="26" t="s">
         <v>84</v>
       </c>
@@ -46073,10 +46075,10 @@
         <v>Willow - Hi</v>
       </c>
       <c r="CN60" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CO60" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CP60" s="52" t="str">
         <f t="shared" si="12"/>
@@ -46182,7 +46184,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A61" s="26" t="s">
         <v>85</v>
       </c>
@@ -46475,10 +46477,10 @@
         <v>Miscanthus - Hi</v>
       </c>
       <c r="CN61" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CO61" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CP61" s="52" t="str">
         <f t="shared" si="12"/>
@@ -46584,7 +46586,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A62" s="26" t="s">
         <v>86</v>
       </c>
@@ -46877,10 +46879,10 @@
         <v>Wheat - Hi</v>
       </c>
       <c r="CN62" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CO62" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CP62" s="52" t="str">
         <f t="shared" si="12"/>
@@ -46986,7 +46988,7 @@
         <v>28.527089324022089</v>
       </c>
     </row>
-    <row r="63" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A63" s="26" t="s">
         <v>87</v>
       </c>
@@ -47279,10 +47281,10 @@
         <v>OSR - Hi</v>
       </c>
       <c r="CN63" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CO63" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CP63" s="52" t="str">
         <f t="shared" si="12"/>
@@ -47388,7 +47390,7 @@
         <v>39.888592755976262</v>
       </c>
     </row>
-    <row r="64" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A64" s="26" t="s">
         <v>88</v>
       </c>
@@ -47681,10 +47683,10 @@
         <v>Crops Anaerobic - Hi</v>
       </c>
       <c r="CN64" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="CO64" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CP64" s="52" t="str">
         <f t="shared" si="12"/>
@@ -47790,7 +47792,7 @@
         <v>12.18892310812339</v>
       </c>
     </row>
-    <row r="65" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:119" x14ac:dyDescent="0.45">
       <c r="A65" s="26" t="s">
         <v>89</v>
       </c>
@@ -48086,7 +48088,7 @@
         <v>6</v>
       </c>
       <c r="CO65" s="15" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="CP65" s="52" t="str">
         <f t="shared" si="12"/>
@@ -48192,7 +48194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:119" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:119" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A66" s="22"/>
       <c r="B66" s="22"/>
       <c r="C66" s="22"/>
@@ -48305,7 +48307,7 @@
       <c r="BD66" s="21"/>
       <c r="CJ66" s="2"/>
     </row>
-    <row r="67" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:119" x14ac:dyDescent="0.45">
       <c r="CJ67" s="66">
         <f>SUM(CJ6:CJ21,CJ28:CJ43,CJ50:CJ65)</f>
         <v>188.50791202135417</v>
@@ -48314,7 +48316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:119" x14ac:dyDescent="0.45">
       <c r="C68" s="69"/>
       <c r="D68" s="69"/>
       <c r="E68" s="69"/>
@@ -48353,7 +48355,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:119" x14ac:dyDescent="0.45">
       <c r="AB69" s="16"/>
     </row>
   </sheetData>
@@ -48379,14 +48381,14 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="3" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.86328125" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="9.1328125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="53" t="s">
         <v>0</v>
       </c>
@@ -48394,7 +48396,7 @@
         <v>4.1868000000000002E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="53" t="s">
         <v>102</v>
       </c>
@@ -48402,12 +48404,12 @@
         <v>41.868000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="26.65" x14ac:dyDescent="0.45">
       <c r="A6" s="57"/>
       <c r="B6" s="58" t="s">
         <v>101</v>
@@ -48423,7 +48425,7 @@
       <c r="I6" s="99"/>
       <c r="J6" s="100"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="60">
         <v>2000</v>
       </c>
@@ -48447,7 +48449,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="62">
         <v>2001</v>
       </c>
@@ -48474,7 +48476,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="62">
         <v>2002</v>
       </c>
@@ -48505,7 +48507,7 @@
         <v>106.04453870625663</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="62">
         <v>2003</v>
       </c>
@@ -48536,7 +48538,7 @@
         <v>126.10340479192939</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="62">
         <v>2004</v>
       </c>
@@ -48563,7 +48565,7 @@
         <v>93.9</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="62">
         <v>2005</v>
       </c>
@@ -48582,7 +48584,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="62">
         <v>2006</v>
       </c>
@@ -48594,7 +48596,7 @@
         <v>113.94721389560772</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="62">
         <v>2007</v>
       </c>
@@ -48606,7 +48608,7 @@
         <v>116.6819470291023</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="62">
         <v>2008</v>
       </c>
@@ -48618,7 +48620,7 @@
         <v>120.99917906917909</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="62">
         <v>2009</v>
       </c>
@@ -48630,7 +48632,7 @@
         <v>122.20917085987088</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="62">
         <v>2010</v>
       </c>
@@ -48642,7 +48644,7 @@
         <v>124.77556344792816</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="62">
         <v>2011</v>
       </c>
@@ -48658,7 +48660,7 @@
         <v>0.77734139438083416</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="62">
         <v>2012</v>
       </c>
@@ -48670,7 +48672,7 @@
         <v>131.98833966859911</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="62">
         <v>2013</v>
       </c>
@@ -48682,7 +48684,7 @@
         <v>133.9681647636281</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" s="62">
         <v>2014</v>
       </c>
@@ -48694,7 +48696,7 @@
         <v>134.63800558744623</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="65">
         <v>2015</v>
       </c>
@@ -48706,7 +48708,7 @@
         <v>134.63800558744623</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="16" t="s">
         <v>98</v>
       </c>
@@ -48868,18 +48870,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -48901,18 +48903,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37B7E6A7-FFA9-474C-81D0-41CF87028AB1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9D0B387-229C-4E2C-9ACB-57F10C5B7407}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37B7E6A7-FFA9-474C-81D0-41CF87028AB1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>